--- a/data_collection_with_python/dist/data/position_event_based_data_y2021_m11_d04_h13_m26.xlsx
+++ b/data_collection_with_python/dist/data/position_event_based_data_y2021_m11_d04_h13_m26.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance Eades\Documents\GitHub\UCI-ChemECar-2021\data_collection_with_python\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572C5ABF-DB2A-4E37-9446-9C9652B55137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68063446-08E7-441F-862B-C54914AF5A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="position_event_based_data_y2021" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>input</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>colorTemp</t>
   </si>
@@ -51,12 +59,45 @@
   <si>
     <t>p4v2</t>
   </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>V1P1</t>
+  </si>
+  <si>
+    <t>V2P2</t>
+  </si>
+  <si>
+    <t>V1P2</t>
+  </si>
+  <si>
+    <t>V1P3</t>
+  </si>
+  <si>
+    <t>V1P4</t>
+  </si>
+  <si>
+    <t>V2P1</t>
+  </si>
+  <si>
+    <t>V2P3</t>
+  </si>
+  <si>
+    <t>V2P4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +228,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -594,6 +641,4231 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variance of Readings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> based on Position</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>953.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>838.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>854.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>909.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>901.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BAF-436B-84D7-E7CB6CE79CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>320.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BAF-436B-84D7-E7CB6CE79CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>295.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BAF-436B-84D7-E7CB6CE79CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>383.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BAF-436B-84D7-E7CB6CE79CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1281376815"/>
+        <c:axId val="1281381807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1281376815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281381807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1281381807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281376815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lux</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Reading Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11EF-4DA4-AD36-1BCCCD62CFC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1349395967"/>
+        <c:axId val="1349396383"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1349395967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349396383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1349396383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349395967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Color Temperature Reading</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>colorTemp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45395.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53814.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55825.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36552.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29594.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20989.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E25-41DA-9C7F-75E957C8C845}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1350356367"/>
+        <c:axId val="1350355119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1350356367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350355119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350355119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350356367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variance of Similar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Readings based on Position</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>320.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15F5-44E5-B026-405F4C158D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>295.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15F5-44E5-B026-405F4C158D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>position_event_based_data_y2021!$H$2:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>V1P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V1P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V1P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V1P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V2P1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V2P2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V2P3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V2P4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>position_event_based_data_y2021!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>383.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15F5-44E5-B026-405F4C158D46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1282046399"/>
+        <c:axId val="1282043487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1282046399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1282043487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1282043487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1282046399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F5B455-096D-46E3-B173-55D6FE6D33D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E41A9D6-D6BB-4BB7-A31E-596476A05DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59110</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>559453</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>154360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2F958B-D94B-49D1-A103-056891A8052B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31DD8F1-E6D3-4E3B-9629-3C3CDFD19628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -890,36 +5162,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -941,8 +5241,35 @@
       <c r="G2">
         <v>365</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(D2:D5)</f>
+        <v>953.25</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>320.75</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>295.25</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(G2:G5)</f>
+        <v>364</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(C2:C5)</f>
+        <v>95</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(B2:B5)</f>
+        <v>45395.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -964,8 +5291,35 @@
       <c r="G3">
         <v>366</v>
       </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(D6:D9)</f>
+        <v>838.25</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(E6:E9)</f>
+        <v>294.5</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(F6:F9)</f>
+        <v>251.5</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(G6:G9)</f>
+        <v>304.25</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(C6:C9)</f>
+        <v>78</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(B6:B9)</f>
+        <v>33447</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,8 +5341,35 @@
       <c r="G4">
         <v>365</v>
       </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(D10:D13)</f>
+        <v>1000.75</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(E10:E13)</f>
+        <v>333.75</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(F10:F13)</f>
+        <v>308.25</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(G10:G13)</f>
+        <v>383.75</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(C10:C13)</f>
+        <v>96.75</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(B10:B13)</f>
+        <v>53814.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1010,8 +5391,35 @@
       <c r="G5">
         <v>360</v>
       </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(D14:D17)</f>
+        <v>854.25</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(E14:E17)</f>
+        <v>295</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(F14:F17)</f>
+        <v>252.75</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(G14:G17)</f>
+        <v>314.75</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(C14:C17)</f>
+        <v>72.5</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(B14:B17)</f>
+        <v>55825.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1033,8 +5441,35 @@
       <c r="G6" s="1">
         <v>309</v>
       </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(D18:D21)</f>
+        <v>909.5</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(E18:E21)</f>
+        <v>318</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(F18:F21)</f>
+        <v>277.25</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(G18:G21)</f>
+        <v>337.25</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(C18:C21)</f>
+        <v>87.25</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(B18:B21)</f>
+        <v>36552.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1056,8 +5491,35 @@
       <c r="G7" s="1">
         <v>300</v>
       </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(D22:D25)</f>
+        <v>946</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(E22:E25)</f>
+        <v>327.25</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(F22:F25)</f>
+        <v>290</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(G22:G25)</f>
+        <v>354.5</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(C22:C25)</f>
+        <v>91.5</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE(B22:B25)</f>
+        <v>29594.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1079,8 +5541,35 @@
       <c r="G8" s="1">
         <v>305</v>
       </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(D26:D29)</f>
+        <v>901.25</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(E26:E29)</f>
+        <v>314.5</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(F26:F29)</f>
+        <v>266.75</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(G26:G29)</f>
+        <v>325.25</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(C26:C29)</f>
+        <v>80.25</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE(B26:B29)</f>
+        <v>37844</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1102,8 +5591,35 @@
       <c r="G9" s="1">
         <v>303</v>
       </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(D30:D33)</f>
+        <v>753.75</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(E30:E33)</f>
+        <v>280</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE(F30:F33)</f>
+        <v>230</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(G30:G33)</f>
+        <v>269.25</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(C30:C33)</f>
+        <v>74.75</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE(B30:B33)</f>
+        <v>20989.75</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1126,7 +5642,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1149,7 +5665,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1172,7 +5688,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1195,7 +5711,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1218,7 +5734,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1241,7 +5757,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1289,7 +5805,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>36297</v>
@@ -1381,7 +5897,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
         <v>903</v>
@@ -1473,7 +5989,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>37179</v>
@@ -1565,7 +6081,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>20755</v>
@@ -1656,6 +6172,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>